--- a/Geometry/Circle/tables/inp.xlsx
+++ b/Geometry/Circle/tables/inp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE6B79A-0F9E-474B-A2A1-47C3D12EA506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99DEA045-B854-FB4F-BD37-A06C982F4084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Parameter</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BF731-653B-2440-82D0-D6EFBF5431AE}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -438,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -446,7 +449,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
